--- a/PrimeCore.xlsx
+++ b/PrimeCore.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="1142">
   <si>
     <t xml:space="preserve">pi-g.4ies</t>
   </si>
@@ -3448,6 +3448,12 @@
   </si>
   <si>
     <t xml:space="preserve">fabrica-ap31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piso 3 (30.B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">essua-ap27-new</t>
   </si>
 </sst>
 </file>
@@ -13023,7 +13029,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="782:782 E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13244,7 +13250,7 @@
   <dimension ref="A3:D57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="1" sqref="782:782 B49"/>
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13714,12 +13720,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I782"/>
+  <dimension ref="A1:I783"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A770" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A782" activeCellId="0" sqref="782:782"/>
+      <selection pane="bottomLeft" activeCell="D780" activeCellId="0" sqref="D780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28176,6 +28182,17 @@
         <v>1139</v>
       </c>
     </row>
+    <row r="783" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A783" s="0" t="n">
+        <v>8865742053</v>
+      </c>
+      <c r="B783" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C783" s="0" t="s">
+        <v>1141</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/PrimeCore.xlsx
+++ b/PrimeCore.xlsx
@@ -10759,7 +10759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G793"/>
+  <dimension ref="A1:G795"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A773" xSplit="0" ySplit="1"/>
@@ -32066,22 +32066,62 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" t="n">
+      <c r="A793" s="32" t="n">
         <v>8865742261</v>
       </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>default location</t>
-        </is>
-      </c>
-      <c r="C793" t="inlineStr">
+      <c r="B793" s="32" t="inlineStr">
+        <is>
+          <t>default location</t>
+        </is>
+      </c>
+      <c r="C793" s="32" t="inlineStr">
         <is>
           <t>essua-ap66</t>
         </is>
       </c>
-      <c r="G793" t="inlineStr">
+      <c r="G793" s="32" t="inlineStr">
         <is>
           <t>essua</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="32" t="n">
+        <v>8865742280</v>
+      </c>
+      <c r="B794" s="32" t="inlineStr">
+        <is>
+          <t>default location</t>
+        </is>
+      </c>
+      <c r="C794" s="32" t="inlineStr">
+        <is>
+          <t>demac-ap16</t>
+        </is>
+      </c>
+      <c r="G794" s="32" t="inlineStr">
+        <is>
+          <t>demac</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>8865742282</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>default location</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>ra-b10-ap02-new</t>
+        </is>
+      </c>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>ra</t>
         </is>
       </c>
     </row>
